--- a/Excel/Mingguan/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:J37"/>
+      <selection activeCell="D6" sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
